--- a/TLF01_Antilog/AntiLog-MMテスト表.xlsx
+++ b/TLF01_Antilog/AntiLog-MMテスト表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\TLF01\TLF01_Antilog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
   <si>
     <t>GND</t>
   </si>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1) 電源+-9V R4=2.2kΩ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LED1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -360,6 +356,38 @@
   </si>
   <si>
     <t>AntiLog-MMテスト表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018.07.12 #1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018.07.12 #2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0~9.51k</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1) 電源+-9V R3=47kΩ R4=2.2kΩ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0~8.95</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -401,12 +429,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -423,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +468,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,7 +755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -727,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -778,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -797,6 +836,9 @@
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -811,6 +853,9 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -825,6 +870,9 @@
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -839,6 +887,9 @@
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -853,6 +904,9 @@
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -867,6 +921,9 @@
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -881,8 +938,11 @@
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -895,8 +955,11 @@
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -909,8 +972,14 @@
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -923,8 +992,11 @@
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -937,8 +1009,11 @@
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -951,8 +1026,11 @@
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -965,8 +1043,11 @@
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>14</v>
       </c>
@@ -979,8 +1060,14 @@
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>15</v>
       </c>
@@ -993,8 +1080,11 @@
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>16</v>
       </c>
@@ -1007,8 +1097,11 @@
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>17</v>
       </c>
@@ -1021,8 +1114,11 @@
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>18</v>
       </c>
@@ -1035,8 +1131,11 @@
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -1049,8 +1148,11 @@
       <c r="D28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>20</v>
       </c>
@@ -1063,8 +1165,11 @@
       <c r="D29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>21</v>
       </c>
@@ -1077,8 +1182,11 @@
       <c r="D30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>22</v>
       </c>
@@ -1091,8 +1199,11 @@
       <c r="D31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>23</v>
       </c>
@@ -1104,6 +1215,9 @@
       </c>
       <c r="D32" t="s">
         <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1119,6 +1233,9 @@
       <c r="D33" t="s">
         <v>50</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
@@ -1133,6 +1250,9 @@
       <c r="D34" t="s">
         <v>50</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
@@ -1147,6 +1267,9 @@
       <c r="D35" t="s">
         <v>50</v>
       </c>
+      <c r="E35" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
@@ -1161,6 +1284,9 @@
       <c r="D36" t="s">
         <v>50</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
@@ -1175,6 +1301,9 @@
       <c r="D37" t="s">
         <v>50</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
@@ -1189,6 +1318,9 @@
       <c r="D38" t="s">
         <v>50</v>
       </c>
+      <c r="E38" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
@@ -1203,6 +1335,9 @@
       <c r="D39" t="s">
         <v>50</v>
       </c>
+      <c r="E39" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
@@ -1217,6 +1352,9 @@
       <c r="D40" t="s">
         <v>50</v>
       </c>
+      <c r="E40" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
@@ -1231,10 +1369,13 @@
       <c r="D41" t="s">
         <v>50</v>
       </c>
+      <c r="E41" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1262,13 +1403,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" t="s">
         <v>71</v>
       </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" t="s">
-        <v>72</v>
+      <c r="E45" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1276,13 +1420,16 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
+      <c r="E46" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1290,13 +1437,16 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
         <v>77</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>79</v>
+      <c r="E47" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1304,13 +1454,13 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
         <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -1321,10 +1471,10 @@
         <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
